--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value840.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value840.xlsx
@@ -354,7 +354,7 @@
         <v>1.3709553846083</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.679516098631501</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value840.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value840.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.6113527338374818</v>
+        <v>0.8722577095031738</v>
       </c>
       <c r="B1">
-        <v>1.3709553846083</v>
+        <v>1.24306333065033</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>3.45703125</v>
       </c>
       <c r="D1">
-        <v>2.679516098631501</v>
+        <v>3.922667980194092</v>
       </c>
       <c r="E1">
-        <v>1.649967007352632</v>
+        <v>0.4346535205841064</v>
       </c>
     </row>
   </sheetData>
